--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Machine Learning\Tugas Praktikum\TugasPratikumML_234-244\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0CBED9-DBF3-4D87-909C-9125766EF73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C23EE-0FCB-4124-BBD3-0508277425C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A3F42A1-B607-4FDC-809F-070907E95536}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -47,24 +47,9 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Database Design</t>
-  </si>
-  <si>
     <t>Preprocessing Data</t>
   </si>
   <si>
-    <t>Modelling</t>
-  </si>
-  <si>
-    <t>Model Inference</t>
-  </si>
-  <si>
-    <t>Model Evaluation</t>
-  </si>
-  <si>
-    <t>Prediksi Data</t>
-  </si>
-  <si>
     <t>Frontend Web</t>
   </si>
   <si>
@@ -84,6 +69,21 @@
   </si>
   <si>
     <t>Lulita</t>
+  </si>
+  <si>
+    <t>On Going</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Modelling CNN</t>
+  </si>
+  <si>
+    <t>Augmentasi Data</t>
+  </si>
+  <si>
+    <t>Pretrained Model</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -163,6 +163,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB3C43F-F461-41DB-8571-A7EACAEB74D0}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
@@ -485,7 +486,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -493,7 +494,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -521,111 +522,113 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="4">
+        <v>44492</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44496</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44492</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44496</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Machine Learning\Tugas Praktikum\TugasPratikumML_234-244\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RYZEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C23EE-0FCB-4124-BBD3-0508277425C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C20607-ABE3-4BDF-BDFA-F9DEA3E86B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A3F42A1-B607-4FDC-809F-070907E95536}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Pretrained Model</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -160,10 +163,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +484,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,13 +496,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -522,47 +525,51 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>44492</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>44496</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>44492</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>44496</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="3">
+        <v>44507</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44510</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RYZEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C20607-ABE3-4BDF-BDFA-F9DEA3E86B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9ACA73-CAF4-400F-B721-2967B7CB8282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A3F42A1-B607-4FDC-809F-070907E95536}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Lulita</t>
-  </si>
-  <si>
-    <t>On Going</t>
   </si>
   <si>
     <t>Waiting</t>
@@ -484,7 +481,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,12 +532,12 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>44492</v>
@@ -552,12 +549,12 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>44507</v>
@@ -569,12 +566,12 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -582,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -621,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RYZEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9ACA73-CAF4-400F-B721-2967B7CB8282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1171D570-5DE7-4923-895F-FA85DEA41CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A3F42A1-B607-4FDC-809F-070907E95536}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -50,18 +50,9 @@
     <t>Preprocessing Data</t>
   </si>
   <si>
-    <t>Frontend Web</t>
-  </si>
-  <si>
     <t>Backend Web</t>
   </si>
   <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Sprint Project</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>Lulita</t>
   </si>
   <si>
-    <t>Waiting</t>
-  </si>
-  <si>
     <t>Modelling CNN</t>
   </si>
   <si>
@@ -84,6 +72,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Augmentasi Random Noise</t>
+  </si>
+  <si>
+    <t>Model Deployment</t>
   </si>
 </sst>
 </file>
@@ -127,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,11 +144,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -164,6 +180,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,12 +500,12 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -494,7 +513,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -529,15 +548,15 @@
         <v>44496</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>44492</v>
@@ -546,15 +565,15 @@
         <v>44496</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>44507</v>
@@ -563,20 +582,24 @@
         <v>44510</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44520</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44524</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -584,12 +607,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44542</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44544</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -597,42 +624,44 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44552</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44559</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44556</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44559</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RYZEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1171D570-5DE7-4923-895F-FA85DEA41CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94FD9F-966C-46BF-85CD-F24A5AC64405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A3F42A1-B607-4FDC-809F-070907E95536}"/>
   </bookViews>
@@ -177,12 +177,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,13 +512,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -633,35 +633,35 @@
         <v>44559</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>44556</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>44559</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RYZEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94FD9F-966C-46BF-85CD-F24A5AC64405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B820D9-6E2D-4D9E-A439-CA3F3D2A2690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A3F42A1-B607-4FDC-809F-070907E95536}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Model Deployment</t>
+  </si>
+  <si>
+    <t>Modelling CNN 2</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,42 +147,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,7 +478,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,13 +490,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -590,16 +568,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>44520</v>
+        <v>44507</v>
       </c>
       <c r="C6" s="3">
-        <v>44524</v>
+        <v>44510</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -607,16 +585,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>44542</v>
+        <v>44520</v>
       </c>
       <c r="C7" s="3">
-        <v>44544</v>
+        <v>44524</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -624,44 +602,54 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44542</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44544</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>44552</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>44559</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="3">
         <v>44556</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="3">
         <v>44559</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
